--- a/Data/Line_Data.xlsx
+++ b/Data/Line_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82D32A5-69B5-4B05-AC32-0C3C28452474}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC8E789-36E6-431B-9E55-3ACA682594E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,8 +54,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,208 +337,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
         <v>1.9380000000000001E-2</v>
       </c>
-      <c r="B1">
+      <c r="D1">
         <v>5.917E-2</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <v>5.28E-2</v>
       </c>
-      <c r="D1">
+      <c r="F1">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>0.5403</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>0.22303999999999999</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>4.6989999999999997E-2</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>0.19797000000000001</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>4.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>5.8110000000000002E-2</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>0.17632</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>0.56950000000000001</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>0.17388000000000001</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>3.4599999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>0.67010000000000003</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>0.17102999999999999</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>1.3350000000000001E-2</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>4.2110000000000002E-2</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0.55618000000000001</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0.25202000000000002</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>9.4979999999999995E-2</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>0.19889999999999999</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>0.12291000000000001</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>0.25580999999999998</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>6.615E-2</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>0.13027</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
         <v>3.1809999999999998E-2</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
         <v>0.12711</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>0.27038000000000001</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
         <v>8.2049999999999998E-2</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>0.19206999999999999</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
         <v>0.22092000000000001</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>0.19988</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
         <v>0.17093</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>0.34802</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Line_Data.xlsx
+++ b/Data/Line_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC8E789-36E6-431B-9E55-3ACA682594E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D566F3B-9A9D-4694-88F9-C48A67981CD3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,7 +336,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,7 +369,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.5403</v>
+        <v>5.4030000000000002E-2</v>
       </c>
       <c r="D2">
         <v>0.22303999999999999</v>
@@ -427,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.56950000000000001</v>
+        <v>5.6950000000000001E-2</v>
       </c>
       <c r="D5">
         <v>0.17388000000000001</v>
